--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam15-Itgav.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam15-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H2">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I2">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J2">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N2">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q2">
-        <v>308.2361496720691</v>
+        <v>578.0920591632016</v>
       </c>
       <c r="R2">
-        <v>308.2361496720691</v>
+        <v>5202.828532468815</v>
       </c>
       <c r="S2">
-        <v>0.03210910838839617</v>
+        <v>0.0490863107733104</v>
       </c>
       <c r="T2">
-        <v>0.03210910838839617</v>
+        <v>0.04908631077331042</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H3">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I3">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J3">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N3">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q3">
-        <v>1567.723388960546</v>
+        <v>1904.255700104759</v>
       </c>
       <c r="R3">
-        <v>1567.723388960546</v>
+        <v>17138.30130094283</v>
       </c>
       <c r="S3">
-        <v>0.1633105016160905</v>
+        <v>0.1616920447281245</v>
       </c>
       <c r="T3">
-        <v>0.1633105016160905</v>
+        <v>0.1616920447281245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H4">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I4">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J4">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N4">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q4">
-        <v>1766.633526840257</v>
+        <v>2272.538375868684</v>
       </c>
       <c r="R4">
-        <v>1766.633526840257</v>
+        <v>20452.84538281816</v>
       </c>
       <c r="S4">
-        <v>0.1840310666229055</v>
+        <v>0.1929632541980176</v>
       </c>
       <c r="T4">
-        <v>0.1840310666229055</v>
+        <v>0.1929632541980177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H5">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I5">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J5">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N5">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q5">
-        <v>787.4134572690967</v>
+        <v>957.2443133172726</v>
       </c>
       <c r="R5">
-        <v>787.4134572690967</v>
+        <v>8615.198819855455</v>
       </c>
       <c r="S5">
-        <v>0.08202523965094233</v>
+        <v>0.08128046580935763</v>
       </c>
       <c r="T5">
-        <v>0.08202523965094233</v>
+        <v>0.08128046580935765</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H6">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I6">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J6">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N6">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q6">
-        <v>169.3968292654351</v>
+        <v>269.9215902740978</v>
       </c>
       <c r="R6">
-        <v>169.3968292654351</v>
+        <v>2429.29431246688</v>
       </c>
       <c r="S6">
-        <v>0.01764614941278372</v>
+        <v>0.02291928223992445</v>
       </c>
       <c r="T6">
-        <v>0.01764614941278372</v>
+        <v>0.02291928223992445</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H7">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I7">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J7">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N7">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q7">
-        <v>861.5711412750087</v>
+        <v>889.1312702077512</v>
       </c>
       <c r="R7">
-        <v>861.5711412750087</v>
+        <v>8002.18143186976</v>
       </c>
       <c r="S7">
-        <v>0.08975028136364065</v>
+        <v>0.07549692675395266</v>
       </c>
       <c r="T7">
-        <v>0.08975028136364065</v>
+        <v>0.07549692675395266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H8">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I8">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J8">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N8">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q8">
-        <v>970.8858556633801</v>
+        <v>1061.089082007644</v>
       </c>
       <c r="R8">
-        <v>970.8858556633801</v>
+        <v>9549.8017380688</v>
       </c>
       <c r="S8">
-        <v>0.1011376478891992</v>
+        <v>0.09009801745588369</v>
       </c>
       <c r="T8">
-        <v>0.1011376478891992</v>
+        <v>0.09009801745588369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H9">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I9">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J9">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N9">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q9">
-        <v>432.7375070193006</v>
+        <v>446.9546039180088</v>
       </c>
       <c r="R9">
-        <v>432.7375070193006</v>
+        <v>4022.591435262079</v>
       </c>
       <c r="S9">
-        <v>0.04507847483622444</v>
+        <v>0.03795131284321538</v>
       </c>
       <c r="T9">
-        <v>0.04507847483622444</v>
+        <v>0.03795131284321539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.600948696868</v>
+        <v>19.168158</v>
       </c>
       <c r="H10">
-        <v>16.600948696868</v>
+        <v>57.504474</v>
       </c>
       <c r="I10">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J10">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N10">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q10">
-        <v>165.0681957415299</v>
+        <v>294.400684595492</v>
       </c>
       <c r="R10">
-        <v>165.0681957415299</v>
+        <v>2649.606161359428</v>
       </c>
       <c r="S10">
-        <v>0.01719523357069127</v>
+        <v>0.02499782390515413</v>
       </c>
       <c r="T10">
-        <v>0.01719523357069127</v>
+        <v>0.02499782390515413</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.600948696868</v>
+        <v>19.168158</v>
       </c>
       <c r="H11">
-        <v>16.600948696868</v>
+        <v>57.504474</v>
       </c>
       <c r="I11">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J11">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N11">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q11">
-        <v>839.5552290438035</v>
+        <v>969.7662731558842</v>
       </c>
       <c r="R11">
-        <v>839.5552290438035</v>
+        <v>8727.896458402956</v>
       </c>
       <c r="S11">
-        <v>0.08745687316718716</v>
+        <v>0.0823437165535708</v>
       </c>
       <c r="T11">
-        <v>0.08745687316718716</v>
+        <v>0.0823437165535708</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.600948696868</v>
+        <v>19.168158</v>
       </c>
       <c r="H12">
-        <v>16.600948696868</v>
+        <v>57.504474</v>
       </c>
       <c r="I12">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J12">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N12">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q12">
-        <v>946.076601080907</v>
+        <v>1157.31887857742</v>
       </c>
       <c r="R12">
-        <v>946.076601080907</v>
+        <v>10415.86990719678</v>
       </c>
       <c r="S12">
-        <v>0.09855325587265139</v>
+        <v>0.09826897504854444</v>
       </c>
       <c r="T12">
-        <v>0.09855325587265139</v>
+        <v>0.09826897504854444</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.600948696868</v>
+        <v>19.168158</v>
       </c>
       <c r="H13">
-        <v>16.600948696868</v>
+        <v>57.504474</v>
       </c>
       <c r="I13">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J13">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N13">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q13">
-        <v>421.6796726545276</v>
+        <v>487.488760135672</v>
       </c>
       <c r="R13">
-        <v>421.6796726545276</v>
+        <v>4387.398841221047</v>
       </c>
       <c r="S13">
-        <v>0.04392657489672295</v>
+        <v>0.04139310408994901</v>
       </c>
       <c r="T13">
-        <v>0.04392657489672295</v>
+        <v>0.04139310408994902</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.53782285986993</v>
+        <v>3.221194</v>
       </c>
       <c r="H14">
-        <v>2.53782285986993</v>
+        <v>9.663582</v>
       </c>
       <c r="I14">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="J14">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N14">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q14">
-        <v>25.23433137705996</v>
+        <v>49.47380540242266</v>
       </c>
       <c r="R14">
-        <v>25.23433137705996</v>
+        <v>445.264248621804</v>
       </c>
       <c r="S14">
-        <v>0.002628672471274858</v>
+        <v>0.004200864807997673</v>
       </c>
       <c r="T14">
-        <v>0.002628672471274858</v>
+        <v>0.004200864807997673</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.53782285986993</v>
+        <v>3.221194</v>
       </c>
       <c r="H15">
-        <v>2.53782285986993</v>
+        <v>9.663582</v>
       </c>
       <c r="I15">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="J15">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N15">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q15">
-        <v>128.3446200151606</v>
+        <v>162.9684657488787</v>
       </c>
       <c r="R15">
-        <v>128.3446200151606</v>
+        <v>1466.716191739908</v>
       </c>
       <c r="S15">
-        <v>0.01336972097373608</v>
+        <v>0.01383779733556364</v>
       </c>
       <c r="T15">
-        <v>0.01336972097373608</v>
+        <v>0.01383779733556364</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.53782285986993</v>
+        <v>3.221194</v>
       </c>
       <c r="H16">
-        <v>2.53782285986993</v>
+        <v>9.663582</v>
       </c>
       <c r="I16">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="J16">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N16">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q16">
-        <v>144.6287720812093</v>
+        <v>194.4865347917267</v>
       </c>
       <c r="R16">
-        <v>144.6287720812093</v>
+        <v>1750.37881312554</v>
       </c>
       <c r="S16">
-        <v>0.01506604894908277</v>
+        <v>0.01651402460333022</v>
       </c>
       <c r="T16">
-        <v>0.01506604894908277</v>
+        <v>0.01651402460333022</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.53782285986993</v>
+        <v>3.221194</v>
       </c>
       <c r="H17">
-        <v>2.53782285986993</v>
+        <v>9.663582</v>
       </c>
       <c r="I17">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="J17">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N17">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q17">
-        <v>64.46308173984224</v>
+        <v>81.92210588082932</v>
       </c>
       <c r="R17">
-        <v>64.46308173984224</v>
+        <v>737.2989529274639</v>
       </c>
       <c r="S17">
-        <v>0.006715150318470893</v>
+        <v>0.006956078854103728</v>
       </c>
       <c r="T17">
-        <v>0.006715150318470893</v>
+        <v>0.00695607885410373</v>
       </c>
     </row>
   </sheetData>
